--- a/markdown_generator/posters_excel.xlsx
+++ b/markdown_generator/posters_excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkurchin/Dropbox (MIT)/rkurchin.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC3D9D7-07A4-9543-80F4-A06813123173}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2631F7CC-B414-664A-B786-AF12429B10C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>title</t>
   </si>
@@ -287,6 +287,15 @@
   </si>
   <si>
     <t>2012-08-02</t>
+  </si>
+  <si>
+    <t>Measuring Real-World Quantities from Computer Simulation with Bayesian Inference</t>
+  </si>
+  <si>
+    <t>deflorez-2019</t>
+  </si>
+  <si>
+    <t>2019-05-06</t>
   </si>
 </sst>
 </file>
@@ -1128,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1161,22 +1170,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1184,39 +1190,39 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1224,245 +1230,245 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1470,23 +1476,43 @@
         <v>62</v>
       </c>
       <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
         <v>67</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>60</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D18" s="1"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
